--- a/pred_ohlcv/54_21/2020-01-24 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 SOC ohlcv.xlsx
@@ -5800,7 +5800,7 @@
         <v>-1647694.637591905</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1657040.498691906</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1639648.758491905</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1639648.758491905</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1637592.267491905</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1645320.186491905</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1633319.814691905</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1621074.735891905</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1628095.136391905</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1615996.538991905</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1608777.580491905</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1616877.587791905</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1622487.790791905</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1602619.249091905</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1668079.035391905</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1660834.376391905</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1667457.502691905</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1660434.425991905</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1666400.002891905</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1657841.039691905</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1672016.958691905</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1697510.325791905</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1727448.846891905</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1666847.532491905</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1658152.956291905</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1686197.282391905</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1692924.016391905</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1684829.727091904</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1690995.307791905</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1678897.490191905</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1659496.257291905</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1677922.211691905</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1663639.808691905</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1650138.167691905</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1656275.868991905</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1649075.752791905</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1643363.326591905</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1652383.706791905</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1635030.698991905</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1658003.379091904</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1677909.765591905</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1655697.361891905</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1637336.208791905</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1659897.220091905</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1641284.166891905</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1652792.792191905</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1645413.362091905</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1654378.138091905</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1663059.410091905</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1655941.027491905</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1675935.956191905</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1654978.084091905</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1673469.569691905</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1661105.779991905</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1654008.964091905</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1661892.883191905</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1633547.766891905</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1681575.023191905</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1714481.601191905</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1747127.862791905</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1719350.755791905</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1702155.957891905</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1691099.407391905</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1669631.950991905</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1676115.817991905</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1682452.113291905</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1675938.224391905</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1668368.024091905</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1675096.270691905</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1664825.648991905</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1676994.833491905</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1645094.779491905</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1654426.361091905</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1661394.125491905</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1668846.938091905</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1683333.630191905</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1692056.917991905</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1683161.318891905</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1669670.403291905</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1681409.909491905</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1674775.059191905</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1683298.196391905</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1666337.981891905</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1663851.869191905</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1670202.221591905</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1681158.420691905</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1672456.502091905</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1664284.722491905</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1657569.275991905</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1666230.230691905</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1673223.438391905</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1661416.317891905</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1674398.571491905</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1671316.712691905</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1684335.365191905</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1715283.841091905</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1723746.521191905</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1699083.154691905</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1705510.041191905</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1697520.848591905</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1689081.492791905</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1695840.467491905</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1704802.209791905</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1700421.555591905</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1711651.838791905</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1682784.467291905</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1763890.005791905</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1780155.484591905</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1788986.463491905</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1810679.257791905</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1888154.186991905</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1914762.207591905</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1897589.940091905</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1887809.683191905</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1897547.078191905</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1889791.626291905</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1880769.699191905</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1889592.993691905</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1901801.020091905</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1895136.930991905</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1901980.608091905</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1895810.562691905</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1904917.069191905</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1894515.634091905</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2218845.931003626</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2197843.435003626</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2203850.926603626</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2194595.504203625</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2201574.656203625</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2348334.716403625</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2234187.565303625</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2213497.653603625</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2198337.286903625</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2185958.381103626</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2158078.588303626</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2174285.028503626</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-2206387.663303626</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-2219461.275103626</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-2203234.494803626</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-2272063.632103626</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-2315708.788003626</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-2737872.327803626</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-2626626.285907218</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-9525363.857065078</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-9365753.761555441</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-9353630.623355441</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-9354016.224255441</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-9420032.784455441</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-9425165.53935544</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-12405733.35865544</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-12507052.03675544</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-12610432.79995544</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-12610432.79995544</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-12606765.74315544</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-12606765.74307223</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-12715953.65577223</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-12692076.49877223</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-12746235.67727223</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-12746264.67727223</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-12548054.06537223</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-12549778.6767793</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-10981182.45175544</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 SOC ohlcv.xlsx
@@ -1900,7 +1900,7 @@
         <v>-1961968.635649896</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1971637.098849896</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1921825.492849895</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1942335.791349896</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2031929.238849896</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2073617.300649896</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1842795.980549895</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1848334.526749895</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1848334.526749895</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1868922.810749895</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1859234.260349895</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1879740.134249895</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1755864.456249895</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1763757.305449895</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1757297.051549895</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1663181.477691906</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1664980.391191906</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1655676.764691905</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1635035.096591905</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1655166.541591906</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1655166.541591906</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1637592.267491905</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1645320.186491905</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1633319.814691905</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1628095.136391905</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1615996.538991905</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1608777.580491905</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1616877.587791905</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1622487.790791905</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1602619.249091905</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1668079.035391905</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1660834.376391905</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1667457.502691905</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1660434.425991905</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1666400.002891905</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1657841.039691905</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1672016.958691905</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1697510.325791905</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1727448.846891905</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1666847.532491905</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1658152.956291905</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1686197.282391905</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1692924.016391905</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1684829.727091904</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1690995.307791905</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1678897.490191905</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1659496.257291905</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1677922.211691905</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1663639.808691905</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1650138.167691905</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1656275.868991905</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1649075.752791905</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1643363.326591905</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1652383.706791905</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1635030.698991905</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1658003.379091904</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1677909.765591905</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1655697.361891905</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1637336.208791905</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1659897.220091905</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1641284.166891905</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1652792.792191905</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1645413.362091905</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1654378.138091905</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1663059.410091905</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1655941.027491905</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1675935.956191905</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1654978.084091905</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1673469.569691905</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1661105.779991905</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1654008.964091905</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1661892.883191905</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1633547.766891905</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1681575.023191905</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1714481.601191905</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1747127.862791905</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1719350.755791905</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1702155.957891905</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1691099.407391905</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1669631.950991905</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1676115.817991905</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1682452.113291905</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1675938.224391905</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1668368.024091905</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1675096.270691905</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1664825.648991905</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1676994.833491905</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1645094.779491905</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1654426.361091905</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1661394.125491905</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1668846.938091905</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1683333.630191905</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1692056.917991905</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1683161.318891905</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1669670.403291905</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1681409.909491905</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1674775.059191905</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1683298.196391905</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1666337.981891905</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1663851.869191905</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1670202.221591905</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1681158.420691905</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1672456.502091905</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1664284.722491905</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1657569.275991905</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1666230.230691905</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1673223.438391905</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1661416.317891905</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1674398.571491905</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1671316.712691905</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1684335.365191905</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1715283.841091905</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1723746.521191905</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1699083.154691905</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1705510.041191905</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1697520.848591905</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1689081.492791905</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1695840.467491905</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1704802.209791905</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1700421.555591905</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1711651.838791905</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1682784.467291905</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1763890.005791905</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1780155.484591905</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1788986.463491905</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1810679.257791905</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1888154.186991905</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1914762.207591905</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1897589.940091905</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1887809.683191905</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1897547.078191905</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1889791.626291905</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1880769.699191905</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1889592.993691905</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1901801.020091905</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1895136.930991905</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1901980.608091905</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1895810.562691905</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1904917.069191905</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1894515.634091905</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1879946.196491905</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1898905.219891905</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1898905.219891905</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1891175.197191905</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-2137209.826091905</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-2113185.219603625</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-2124176.057303625</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-2113381.599703625</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-2100897.220303625</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-2119222.101203626</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-2157008.213003626</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-2148560.106603626</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-2184096.049703625</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-2146803.733803626</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2218845.931003626</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2197843.435003626</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2203850.926603626</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2194595.504203625</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2201574.656203625</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2348334.716403625</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2317775.868703626</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2342329.013303625</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-2268657.746403625</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-2268421.699603625</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-2213417.867303625</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2234187.565303625</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2213497.653603625</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-2204543.925703625</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-2215353.840203625</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-2204972.115703625</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-2217762.089603625</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-2208037.934503625</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2198337.286903625</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2185958.381103626</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2158078.588303626</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2174285.028503626</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-2206387.663303626</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-2219461.275103626</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-2203234.494803626</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-2267984.823103626</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-2302503.121903626</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-2291730.919203626</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-2272063.632103626</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-2315708.788003626</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-2737872.327803626</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-2626626.285907218</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-2616752.657607218</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-2553717.984107218</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-2686344.335407218</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-2862417.246207218</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-2881585.349107218</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-2820883.66781198</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-2977708.85351198</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-3083861.728311981</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-3106887.220511981</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-3106887.220511981</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-3180749.122011981</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-3171838.011711981</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-3144853.761111981</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-3144853.761111981</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-3130084.963911981</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-3130084.963911981</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-3169982.909111981</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-3169982.909111981</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-3223545.496711981</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-3202594.396611982</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-3163866.203011982</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-3172087.300511982</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-3172087.300511982</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-3199948.687911982</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-3180828.178511982</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-3180828.178511982</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-3197997.780611982</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-3182901.651611981</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-3206568.767711982</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-3200673.373211982</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-3208654.819911982</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-3202091.939111982</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-3190224.952711982</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-3199001.303711982</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-3199001.303711982</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-3266738.869911982</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-3304053.360711982</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-3221135.832411982</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-3270100.955911982</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-3270100.955911982</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-3229847.803611982</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-8311915.015265077</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-9511849.680765077</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-9500227.629065078</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-9365753.761555441</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-9353630.623355441</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-9354016.224255441</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-9420032.784455441</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-9425165.53935544</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-12405733.35865544</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-12507052.03675544</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-12610432.79995544</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-12610432.79995544</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-12606765.74315544</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-12561399.76737223</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-12606765.74307223</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-12606615.74307223</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-12664000.90457223</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-12715953.65577223</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-12692076.49877223</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-12746235.67727223</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-12746264.67727223</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-12548054.06537223</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-12547761.1360793</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-12549778.6767793</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
